--- a/PYINSTALLER_FOLDER/EUC_Perth_Assets.xlsx
+++ b/PYINSTALLER_FOLDER/EUC_Perth_Assets.xlsx
@@ -318,7 +318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B99" activeCellId="1" sqref="E1 B99"/>
@@ -1689,7 +1689,23 @@
         </is>
       </c>
     </row>
-    <row r="81" ht="12" customHeight="1" s="9"/>
+    <row r="81" ht="12" customHeight="1" s="9">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SAN43434</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Laptop 840 G9</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2024-02-05 07:51:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1811,10 +1827,10 @@
         </is>
       </c>
       <c r="B7" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="n">
         <v>5</v>
-      </c>
-      <c r="C7" s="8" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1" s="9">
@@ -1902,10 +1918,10 @@
         </is>
       </c>
       <c r="B14" s="8" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" s="8" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1" s="9">
@@ -1981,7 +1997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
@@ -5344,42 +5360,100 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
+      <c r="A170" s="12" t="inlineStr">
         <is>
           <t>2024-02-05 00:06:52</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="12" t="inlineStr">
         <is>
           <t>Laptop Bag</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C170" s="12" t="inlineStr">
         <is>
           <t>add 36</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr"/>
+      <c r="D170" s="12" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
+      <c r="A171" s="12" t="inlineStr">
         <is>
           <t>2024-02-05 00:07:11</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="12" t="inlineStr">
         <is>
           <t>Laptop 840 G9</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" s="12" t="inlineStr">
         <is>
           <t>subtract 1</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="D171" s="12" t="inlineStr">
         <is>
           <t>SAN000666</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-05 07:47:14</t>
+        </is>
+      </c>
+      <c r="B172" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C172" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D172" s="12" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="12" t="inlineStr">
+        <is>
+          <t>2024-02-05 07:49:22</t>
+        </is>
+      </c>
+      <c r="B173" s="12" t="inlineStr">
+        <is>
+          <t>Wired Headset Poly</t>
+        </is>
+      </c>
+      <c r="C173" s="12" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D173" s="12" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2024-02-05 07:51:00</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Laptop 840 G9</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>add 1</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>SAN43434</t>
         </is>
       </c>
     </row>
